--- a/biology/Médecine/Iuliu_Barasch/Iuliu_Barasch.xlsx
+++ b/biology/Médecine/Iuliu_Barasch/Iuliu_Barasch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Iuliu Barasch ou Baraş, né le 17 juillet 1815 et décédé le 31 mars 1863, est un Juif galicien, médecin, philosophe, pédagogue et défenseur de la science et de la culture roumaine. Il a effectué l'ensemble de sa carrière en Roumanie et est considéré comme le fondateur de la Haskala, le mouvement des Lumières juif, en Roumanie.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Yehuda ben Mordehai Barasch est né à Brody en Galicie (maintenant en Ukraine), à l'époque possession de l'empire d'Autriche, le 17 juillet 1815, dans une famille hassidique. Il reçoit une éducation séculière. Il étudie la philosophie à partir de 1836 à l'université de Leipzig et en 1839 change pour un doctorat de médecine à l'université de Berlin, qu'il obtient en 1841.
-Barasch essaye de s'installer en Moldavie, mais les autorités refusent de lui donner une licence pour la pratique de la médecine, aussi s'installe-t-il en Valachie. En 1842, il est médecin à Călărași, puis en 1845 à Craiova et finalement à Bucarest. En 1852, Il enseigne les sciences naturelles à l'académie Saint-Sava, puis est professeur à l'école de médecine et de pharmacie de Bucarest[1].
+Barasch essaye de s'installer en Moldavie, mais les autorités refusent de lui donner une licence pour la pratique de la médecine, aussi s'installe-t-il en Valachie. En 1842, il est médecin à Călărași, puis en 1845 à Craiova et finalement à Bucarest. En 1852, Il enseigne les sciences naturelles à l'académie Saint-Sava, puis est professeur à l'école de médecine et de pharmacie de Bucarest.
 Outre son travail comme docteur, il devient un patriote roumain ardent et radical, ami de Constantin Alexandru Rosetti et de Ion Heliade Rădulescu.
-Il popularise la science médicale et les sciences naturelles en général et est le premier journaliste juif roumain. De 1856 à 1859, il édite un journal Isis sau Natura (Isis ou Nature), le premier magazine de vulgarisation scientifique en Roumanie. Le magazine publie des études d'astronomie, des articles hypothétiques sur la pluralité des mondes ou sur les inventions les plus populaires de l'époque tels que les aérostats ou les sous-marins[2].
+Il popularise la science médicale et les sciences naturelles en général et est le premier journaliste juif roumain. De 1856 à 1859, il édite un journal Isis sau Natura (Isis ou Nature), le premier magazine de vulgarisation scientifique en Roumanie. Le magazine publie des études d'astronomie, des articles hypothétiques sur la pluralité des mondes ou sur les inventions les plus populaires de l'époque tels que les aérostats ou les sous-marins.
 En 1858, Barasch est le fondateur du premier hôpital pour enfants de Bucarest.
 En 1857, avec Aaron Aser et A. Vainberg, Barasch édite Israelitul Român (L'Israélite roumain), le premier journal en langue roumaine de la communauté juive. Ce journal sera publié pendant près de cent ans.
 En 1862, il est un des fondateurs de la Societatea de Cultură Israelită (Société pour la culture israélite), une organisation promouvant les idées de la Haskala. Il en devient président et le restera jusqu'à sa mort.
@@ -553,8 +567,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Livres
-Minunile naturei (Les merveilles de la nature) - 3 volumes - 1852
+          <t>Livres</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Minunile naturei (Les merveilles de la nature) - 3 volumes - 1852
 Mineralogia, după Belez (Minéralogie, après Belez) - 1854
 Asfixia sau leşinul (Étouffement ou évanouissement) - 1854
 Botanica, după Belez (Botanique, après Belez) - 1856
@@ -562,9 +581,43 @@
 Zoologia (Zoologie) - 1857
 Debora, mélodrame - 1858
 Cărticica altoiului (Le livre de la greffe) - 1859
-Manual de silvicultură (Manuel de sylviculture) - 1861
-Journaux
-Isis sau Natura (1856-1859)
+Manual de silvicultură (Manuel de sylviculture) - 1861</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Iuliu_Barasch</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Iuliu_Barasch</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Journaux</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Isis sau Natura (1856-1859)
 Natura (1861-1863)
 Israelitul Român (1857-)</t>
         </is>
